--- a/intermediate_files/output_results.xlsx
+++ b/intermediate_files/output_results.xlsx
@@ -4071,37 +4071,37 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>uncharacterized protein [Anabrus simplex]</t>
+          <t>Centrin-1, putative [Pediculus humanus corporis]</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Anabrus simplex Mormon cricket</t>
+          <t>Pediculus hu... human body l... 121224</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>316456</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>292</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>2e-98</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>6e-104 90.59</t>
+          <t>84.71</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>XP_067004791.1</t>
+          <t>XP_002427159.1</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -7484,47 +7484,47 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>uncharacterized protein LOC125040912 [Penaeus chinensis]</t>
+          <t>cuticle protein 21-like [Cloeon dipterum]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Penaeus chin... NA</t>
+          <t>Cloeon dipterum NA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>139456</t>
+          <t>197152</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>169</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>468</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1e-52 36.62</t>
+          <t>3e-43 65.15</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>334</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>XP_047491664.1</t>
+          <t>XP_065350516.1</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -8340,37 +8340,37 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>uncharacterized protein [Anabrus simplex]</t>
+          <t>Centrin-1, putative [Pediculus humanus corporis]</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Anabrus simplex Mormon cricket</t>
+          <t>Pediculus hu... human body l... 121224</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>316456</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>292</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>2e-98</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>5e-104 90.06</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>XP_067004791.1</t>
+          <t>XP_002427159.1</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -9771,22 +9771,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>uncharacterized protein Phum_PHUM551920 [Pediculus humanus...</t>
+          <t>Splicing factor 3B subunit 5 [Polyplax serrata]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pediculus hu... human body l... 121224</t>
+          <t>Polyplax ser... house mouse ... 468196</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>90.1</t>
+          <t>89.7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.1</t>
+          <t>89.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -9796,7 +9796,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1e-20 97.62</t>
+          <t>2e-20 97.62</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>XP_002431860.1</t>
+          <t>KAK6618730.1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -10187,45 +10187,49 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>uncharacterized protein GBIM_15646 [Gryllus bimaculatus]</t>
+          <t>cleavage and polyadenylation specificity factor subunit 5...</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gryllus bima... two-spotted ... 6999</t>
+          <t>Bacillus ros... NA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>93214</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>388</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>388</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1e-129 94.79</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>5e-129 89.37</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>GLH10742.1</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>XP_063240184.1</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
@@ -11911,7 +11915,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>uncharacterized protein LOC111873799 isoform X2 [Cryptotermes...</t>
+          <t>Cuticle protein 6 [Cryptotermes secundus]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -11926,12 +11930,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>241</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>379</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -11941,7 +11945,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>7e-71</t>
+          <t>2e-70</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -11951,12 +11955,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>457</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>XP_023724545.1</t>
+          <t>PNF16009.1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -12799,37 +12803,37 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>uncharacterized protein [Anabrus simplex]</t>
+          <t>Centrin-1, putative [Pediculus humanus corporis]</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Anabrus simplex Mormon cricket</t>
+          <t>Pediculus hu... human body l... 121224</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>316456</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>293</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>1e-98</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2e-104 90.59</t>
+          <t>84.71</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -12839,7 +12843,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>XP_067004791.1</t>
+          <t>XP_002427159.1</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -12853,22 +12857,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>uncharacterized protein LOC124551169 [Schistocerca americana]</t>
+          <t>hypothetical protein Cfor_07158 [Coptotermes formosanus]</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Schistocerca... American gra... 7009</t>
+          <t>Coptotermes ... Formosan sub... 36987</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>635</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>635</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -12883,17 +12887,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>88.89</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>3269</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>XP_046982141.1</t>
+          <t>GFG33914.1</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -14392,47 +14396,47 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>uncharacterized protein LOC124798927 [Schistocerca piceifrons]</t>
+          <t>ejaculatory bulb-specific protein 3 [Nilaparvata lugens]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Schistocerca... Central Amer... 274613</t>
+          <t>Nilaparvata ... brown planth... 108931</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>197</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1e-62</t>
+          <t>2e-58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>43.22</t>
+          <t>42.74</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>236</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>XP_047118416.1</t>
+          <t>XP_022188604.2</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -15608,45 +15612,49 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Uncharacterized protein GBIM_11215 [Gryllus bimaculatus]</t>
+          <t>hypothetical protein NQ315_017125 [Exocentrus adspersus]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gryllus bima... two-spotted ... 6999</t>
+          <t>Exocentrus a... NA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>1586481</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>319</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>319</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1e-118 88.50</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>4e-105 81.36</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>GLH05629.1</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>KAJ8911615.1</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
@@ -16256,7 +16264,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>uncharacterized protein LOC129909329 [Episyrphus balteatus]</t>
+          <t>calphotin-like [Episyrphus balteatus]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -16266,12 +16274,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>457</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -16281,22 +16289,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5e-64</t>
+          <t>8e-57</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>36.46</t>
+          <t>40.50</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>594</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>XP_055842391.1</t>
+          <t>XP_055842405.1</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -17016,37 +17024,37 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>uncharacterized protein [Anabrus simplex]</t>
+          <t>Centrin-1, putative [Pediculus humanus corporis]</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Anabrus simplex Mormon cricket</t>
+          <t>Pediculus hu... human body l... 121224</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>316456</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>292</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>8e-98</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2e-103 90.59</t>
+          <t>85.21</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -17056,7 +17064,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>XP_067004791.1</t>
+          <t>XP_002427159.1</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -17070,22 +17078,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>uncharacterized protein LOC124551169 [Schistocerca americana]</t>
+          <t>hypothetical protein Cfor_07158 [Coptotermes formosanus]</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Schistocerca... American gra... 7009</t>
+          <t>Coptotermes ... Formosan sub... 36987</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>586</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>586</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -17100,17 +17108,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>83.48</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>3269</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>XP_046982141.1</t>
+          <t>GFG33914.1</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -20677,55 +20685,59 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>uncharacterized protein LOC134539651 [Bacillus rossius...</t>
+          <t>hypothetical protein J437_LFUL016525 [Ladona fulva]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Bacillus ros... NA</t>
+          <t>Ladona fulva</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>93214</t>
+          <t>scarce chaser</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>123851</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>285</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>576</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>6e-96</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>58.84</t>
+          <t>2e-86</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>51.60</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>XP_063237908.1</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>KAG8235992.1</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>519.blasted.txt</t>
@@ -21379,37 +21391,37 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>uncharacterized protein [Anabrus simplex]</t>
+          <t>Centrin-1, putative [Pediculus humanus corporis]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Anabrus simplex Mormon cricket</t>
+          <t>Pediculus hu... human body l... 121224</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>316456</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>295</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>5e-99</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>9e-105 90.64</t>
+          <t>84.80</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -21419,7 +21431,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>XP_067004791.1</t>
+          <t>XP_002427159.1</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -25544,54 +25556,50 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>uncharacterized protein [Anabrus simplex]</t>
+          <t>Centrin-1, putative [Pediculus humanus corporis]</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Anabrus simplex Mormon cricket</t>
+          <t>Pediculus hu... human body l... 121224</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>316456</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>236</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>2e-76</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>7e-82</t>
+          <t>82.86</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>171</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>XP_067004791.1</t>
-        </is>
-      </c>
+          <t>XP_002427159.1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>7153.blasted.txt</t>
@@ -29883,37 +29891,37 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>uncharacterized protein [Anabrus simplex]</t>
+          <t>Centrin-1, putative [Pediculus humanus corporis]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Anabrus simplex Mormon cricket</t>
+          <t>Pediculus hu... human body l... 121224</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>316456</t>
+          <t>294</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>294</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2e-99</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4e-105 90.64</t>
+          <t>84.80</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -29923,7 +29931,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>XP_067004791.1</t>
+          <t>XP_002427159.1</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -32838,45 +32846,49 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Uncharacterized protein GBIM_11215 [Gryllus bimaculatus]</t>
+          <t>tropomyosin isoform X15 [Cimex lectularius]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gryllus bima... two-spotted ... 6999</t>
+          <t>Cimex lectul... bed bug</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>79782</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>281</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>63%</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2e-90 63.67</t>
-        </is>
-      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>4e-90 72.81</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>GLH05629.1</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>XP_014251870.1</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -33428,52 +33440,52 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>uncharacterized protein LOC125040912 [Penaeus chinensis]</t>
+          <t>hypothetical protein PR048_030233 [Dryococelus australis]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Penaeus chin... NA</t>
+          <t>Dryococelus ... NA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>139456</t>
+          <t>614101</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>169</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>605</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>87%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>7e-56</t>
+          <t>3e-43</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>37.20</t>
+          <t>69.29</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>375</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>XP_047491664.1</t>
+          <t>KAJ8868694.1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -34188,37 +34200,37 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>uncharacterized protein [Anabrus simplex]</t>
+          <t>Centrin-1, putative [Pediculus humanus corporis]</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Anabrus simplex Mormon cricket</t>
+          <t>Pediculus hu... human body l... 121224</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>316456</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>292</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>3e-98</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>9e-104 90.06</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -34228,7 +34240,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>XP_067004791.1</t>
+          <t>XP_002427159.1</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -38729,37 +38741,37 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>uncharacterized protein [Anabrus simplex]</t>
+          <t>Centrin-1, putative [Pediculus humanus corporis]</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Anabrus simplex Mormon cricket</t>
+          <t>Pediculus hu... human body l... 121224</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>316456</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>292</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>1e-98</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3e-104 90.59</t>
+          <t>84.71</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -38769,7 +38781,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>XP_067004791.1</t>
+          <t>XP_002427159.1</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -38783,27 +38795,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>uncharacterized protein LOC124551169 [Schistocerca americana]</t>
+          <t>hypothetical protein Cfor_07158 [Coptotermes formosanus]</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Schistocerca... American gra... 7009</t>
+          <t>Coptotermes ... Formosan sub... 36987</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>624</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>624</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -38813,17 +38825,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>3269</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>XP_046982141.1</t>
+          <t>GFG33914.1</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -40430,47 +40442,47 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>uncharacterized protein LOC124798927 [Schistocerca piceifrons]</t>
+          <t>ejaculatory bulb-specific protein 3 [Nilaparvata lugens]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Schistocerca... Central Amer... 274613</t>
+          <t>Nilaparvata ... brown planth... 108931</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>207</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9e-65</t>
+          <t>8e-63</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>43.07</t>
+          <t>43.64</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>236</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>XP_047118416.1</t>
+          <t>XP_022188604.2</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -41792,46 +41804,54 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Uncharacterized protein GBIM_11215 [Gryllus bimaculatus]</t>
+          <t>hypothetical protein NQ315_017125 [Exocentrus adspersus]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gryllus bima... two-spotted ... 6999</t>
+          <t>Exocentrus a... NA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1586481</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>297</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3e-102 78.35</t>
-        </is>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>1e-96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>GLH05629.1</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+          <t>71.48</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>KAJ8911615.1</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>1661.blasted.txt</t>
@@ -42382,52 +42402,52 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>uncharacterized protein LOC122251444 [Penaeus japonicus]</t>
+          <t>hypothetical protein PR048_030233 [Dryococelus australis]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Penaeus japo... NA</t>
+          <t>Dryococelus ... NA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>27405</t>
+          <t>614101</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>169</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>692</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3e-52</t>
+          <t>8e-43</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>36.67</t>
+          <t>69.29</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>375</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>XP_042869350.1</t>
+          <t>KAJ8868694.1</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -43196,37 +43216,37 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>uncharacterized protein [Anabrus simplex]</t>
+          <t>Centrin-1, putative [Pediculus humanus corporis]</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Anabrus simplex Mormon cricket</t>
+          <t>Pediculus hu... human body l... 121224</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>316456</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>292</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>3e-98</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4e-104 90.59</t>
+          <t>85.21</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -43236,7 +43256,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>XP_067004791.1</t>
+          <t>XP_002427159.1</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
